--- a/biology/Histoire de la zoologie et de la botanique/André_Marchand_(mycologue)/André_Marchand_(mycologue).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/André_Marchand_(mycologue)/André_Marchand_(mycologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Marchand_(mycologue)</t>
+          <t>André_Marchand_(mycologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Marchand, né le 3 septembre 1916[1] à Lyon, mort le 4 février 1988 à Perpignan[2], est un mycologue français, fondateur de la Société mycologique des Pyrénées méditerranéennes, devenue Société mycologique André-Marchand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Marchand, né le 3 septembre 1916 à Lyon, mort le 4 février 1988 à Perpignan, est un mycologue français, fondateur de la Société mycologique des Pyrénées méditerranéennes, devenue Société mycologique André-Marchand.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Marchand_(mycologue)</t>
+          <t>André_Marchand_(mycologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'École Normale Supérieure de Saint-Cloud en 1938, André Marchand est nommé professeur de français au lycée François-Arago de Perpignan. C'est à cette époque qu'il commence à s'intéresser à la mycologie.
 Devenu en quelques années un mycologue de haut niveau, il fonde à Perpignan en 1965 la Société mycologique des Pyrénées méditerranéennes. Fervent partisan de l'illustration photographique, il prend des cours de photo dans un club et se lance dans l'écriture de livres sur les champignons.
-À la recherche du "livre idéal" très différent des atlas qui existent alors[3], il se fixe des objectifs précis :
+À la recherche du "livre idéal" très différent des atlas qui existent alors, il se fixe des objectifs précis :
 une seule espèce par page,
 illustrée par une photographie couleur pleine page et de bonne qualité, du champignon in situ, au minimum grandeur nature,
 en face, sur une page entière au minimum, un descriptif fouillé, toujours ordonné de manière identique, suivi de remarques sur l'écologie, la comestibilité, la microscopie, la classification, les espèces proches,
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Marchand_(mycologue)</t>
+          <t>André_Marchand_(mycologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Champignons du Nord et du Midi, tome I : Les meilleurs comestibles et les principaux vénéneux, Société mycologique des Pyrénées méditerranéennes, diffusé par Hachette, 1971
 Champignons du Nord et du Midi, tome II : Les meilleurs comestibles (fin), Société mycologique des Pyrénées méditerranéennes, diffusé par Hachette, 1973
